--- a/output/OCEANA_18611532000120.xlsx
+++ b/output/OCEANA_18611532000120.xlsx
@@ -1351,10 +1351,10 @@
         <v>44165</v>
       </c>
       <c r="B88">
-        <v>1.47443638</v>
+        <v>1.45583906</v>
       </c>
       <c r="C88">
-        <v>0.07328232200053986</v>
+        <v>0.06521576795456863</v>
       </c>
     </row>
   </sheetData>

--- a/output/OCEANA_18611532000120.xlsx
+++ b/output/OCEANA_18611532000120.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>OCEANA SUSTENTABILIDADE SOCIAL FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,975 +383,714 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:B88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>41547</v>
       </c>
       <c r="B2">
-        <v>0.007086600000000054</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>41578</v>
       </c>
       <c r="B3">
-        <v>0.0235723000000001</v>
-      </c>
-      <c r="C3">
         <v>0.01636969452279491</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>41608</v>
       </c>
       <c r="B4">
-        <v>0.03549430000000009</v>
-      </c>
-      <c r="C4">
         <v>0.0116474429798461</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>41639</v>
       </c>
       <c r="B5">
-        <v>0.03263189999999994</v>
-      </c>
-      <c r="C5">
         <v>-0.002764283685579128</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>41670</v>
       </c>
       <c r="B6">
-        <v>-0.009231600000000006</v>
-      </c>
-      <c r="C6">
         <v>-0.04054058372591429</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>41698</v>
       </c>
       <c r="B7">
-        <v>0.007178899999999988</v>
-      </c>
-      <c r="C7">
         <v>0.01656340674571366</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>41729</v>
       </c>
       <c r="B8">
-        <v>0.02161309999999994</v>
-      </c>
-      <c r="C8">
         <v>0.01433131690904155</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>41759</v>
       </c>
       <c r="B9">
-        <v>0.003655399999999975</v>
-      </c>
-      <c r="C9">
         <v>-0.01757778947822808</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>41790</v>
       </c>
       <c r="B10">
-        <v>0.0308991999999999</v>
-      </c>
-      <c r="C10">
         <v>0.02714457571792073</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>41820</v>
       </c>
       <c r="B11">
-        <v>0.05332519999999996</v>
-      </c>
-      <c r="C11">
         <v>0.0217538242342219</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>41851</v>
       </c>
       <c r="B12">
-        <v>0.06750290000000003</v>
-      </c>
-      <c r="C12">
         <v>0.01345994570337838</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>41882</v>
       </c>
       <c r="B13">
-        <v>0.09146919999999992</v>
-      </c>
-      <c r="C13">
         <v>0.02245080552005985</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>41912</v>
       </c>
       <c r="B14">
-        <v>0.03028370000000002</v>
-      </c>
-      <c r="C14">
         <v>-0.05605792632536022</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>41943</v>
       </c>
       <c r="B15">
-        <v>0.03094740000000007</v>
-      </c>
-      <c r="C15">
         <v>0.0006441914979340435</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>41973</v>
       </c>
       <c r="B16">
-        <v>0.03728343000000001</v>
-      </c>
-      <c r="C16">
         <v>0.006145832464391487</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42004</v>
       </c>
       <c r="B17">
-        <v>-0.0008281199999999878</v>
-      </c>
-      <c r="C17">
         <v>-0.03674169363719615</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42035</v>
       </c>
       <c r="B18">
-        <v>-0.04673068999999996</v>
-      </c>
-      <c r="C18">
         <v>-0.0459406143415485</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>42063</v>
       </c>
       <c r="B19">
-        <v>0.00891109999999995</v>
-      </c>
-      <c r="C19">
         <v>0.0583694339220886</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>42094</v>
       </c>
       <c r="B20">
-        <v>0.03384327999999992</v>
-      </c>
-      <c r="C20">
         <v>0.02471196917151564</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>42124</v>
       </c>
       <c r="B21">
-        <v>0.07875114000000005</v>
-      </c>
-      <c r="C21">
         <v>0.0434377829490753</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>42155</v>
       </c>
       <c r="B22">
-        <v>0.06147202000000007</v>
-      </c>
-      <c r="C22">
         <v>-0.0160177072906732</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>42185</v>
       </c>
       <c r="B23">
-        <v>0.0697441299999999</v>
-      </c>
-      <c r="C23">
         <v>0.007793055157497175</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>42216</v>
       </c>
       <c r="B24">
-        <v>0.04224604999999992</v>
-      </c>
-      <c r="C24">
         <v>-0.02570528711384468</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42247</v>
       </c>
       <c r="B25">
-        <v>0.01335321</v>
-      </c>
-      <c r="C25">
         <v>-0.02772170736459012</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42277</v>
       </c>
       <c r="B26">
-        <v>0.002197610000000072</v>
-      </c>
-      <c r="C26">
         <v>-0.011008599854339</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>42308</v>
       </c>
       <c r="B27">
-        <v>0.03466784000000001</v>
-      </c>
-      <c r="C27">
         <v>0.03239902956862961</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>42338</v>
       </c>
       <c r="B28">
-        <v>0.0322503300000001</v>
-      </c>
-      <c r="C28">
         <v>-0.002336508303959595</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>42369</v>
       </c>
       <c r="B29">
-        <v>0.0336536300000001</v>
-      </c>
-      <c r="C29">
         <v>0.00135945706115681</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>42400</v>
       </c>
       <c r="B30">
-        <v>0.01058815000000002</v>
-      </c>
-      <c r="C30">
         <v>-0.02231451555004949</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>42429</v>
       </c>
       <c r="B31">
-        <v>0.05369391999999995</v>
-      </c>
-      <c r="C31">
         <v>0.04265414155113523</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>42460</v>
       </c>
       <c r="B32">
-        <v>0.1409149000000001</v>
-      </c>
-      <c r="C32">
         <v>0.0827763910794892</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>42490</v>
       </c>
       <c r="B33">
-        <v>0.1986575100000001</v>
-      </c>
-      <c r="C33">
         <v>0.05061079489802434</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>42521</v>
       </c>
       <c r="B34">
-        <v>0.2127133299999999</v>
-      </c>
-      <c r="C34">
         <v>0.01172630203601677</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>42551</v>
       </c>
       <c r="B35">
-        <v>0.2642677899999999</v>
-      </c>
-      <c r="C35">
         <v>0.04251166266969286</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>42582</v>
       </c>
       <c r="B36">
-        <v>0.33157584</v>
-      </c>
-      <c r="C36">
         <v>0.05323876043697995</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>42613</v>
       </c>
       <c r="B37">
-        <v>0.3478867000000001</v>
-      </c>
-      <c r="C37">
         <v>0.01224929103549988</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>42643</v>
       </c>
       <c r="B38">
-        <v>0.3623112100000001</v>
-      </c>
-      <c r="C38">
         <v>0.01070157454628795</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>42674</v>
       </c>
       <c r="B39">
-        <v>0.41827956</v>
-      </c>
-      <c r="C39">
         <v>0.04108338064692263</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>42704</v>
       </c>
       <c r="B40">
-        <v>0.3823006799999999</v>
-      </c>
-      <c r="C40">
         <v>-0.02536797470309737</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>42735</v>
       </c>
       <c r="B41">
-        <v>0.3952970099999999</v>
-      </c>
-      <c r="C41">
         <v>0.009401955875475654</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>42766</v>
       </c>
       <c r="B42">
-        <v>0.4514853700000001</v>
-      </c>
-      <c r="C42">
         <v>0.04026982040189431</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>42794</v>
       </c>
       <c r="B43">
-        <v>0.4958944300000001</v>
-      </c>
-      <c r="C43">
         <v>0.03059559601348227</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>42825</v>
       </c>
       <c r="B44">
-        <v>0.5256515799999999</v>
-      </c>
-      <c r="C44">
         <v>0.01989254682898967</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>42855</v>
       </c>
       <c r="B45">
-        <v>0.5481964800000001</v>
-      </c>
-      <c r="C45">
         <v>0.01477722718315544</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>42886</v>
       </c>
       <c r="B46">
-        <v>0.5582119000000001</v>
-      </c>
-      <c r="C46">
         <v>0.006469088471251494</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>42916</v>
       </c>
       <c r="B47">
-        <v>0.5863218100000001</v>
-      </c>
-      <c r="C47">
         <v>0.01803985067756186</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>42947</v>
       </c>
       <c r="B48">
-        <v>0.6297227400000001</v>
-      </c>
-      <c r="C48">
         <v>0.02735947380059023</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>42978</v>
       </c>
       <c r="B49">
-        <v>0.6845042299999999</v>
-      </c>
-      <c r="C49">
         <v>0.03361399375209051</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43008</v>
       </c>
       <c r="B50">
-        <v>0.71477126</v>
-      </c>
-      <c r="C50">
         <v>0.01796791569944589</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43039</v>
       </c>
       <c r="B51">
-        <v>0.71326515</v>
-      </c>
-      <c r="C51">
         <v>-0.0008783153970052249</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43069</v>
       </c>
       <c r="B52">
-        <v>0.6944086</v>
-      </c>
-      <c r="C52">
         <v>-0.01100620648240003</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>43100</v>
       </c>
       <c r="B53">
-        <v>0.7498535900000001</v>
-      </c>
-      <c r="C53">
         <v>0.03272232565391842</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43131</v>
       </c>
       <c r="B54">
-        <v>0.83414341</v>
-      </c>
-      <c r="C54">
         <v>0.04816964143840163</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43159</v>
       </c>
       <c r="B55">
-        <v>0.8343464300000001</v>
-      </c>
-      <c r="C55">
         <v>0.0001106892726561171</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43190</v>
       </c>
       <c r="B56">
-        <v>0.82341657</v>
-      </c>
-      <c r="C56">
         <v>-0.005958449189992998</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43220</v>
       </c>
       <c r="B57">
-        <v>0.82405594</v>
-      </c>
-      <c r="C57">
         <v>0.0003506439562519503</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43251</v>
       </c>
       <c r="B58">
-        <v>0.7321668800000001</v>
-      </c>
-      <c r="C58">
         <v>-0.05037622914130579</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43281</v>
       </c>
       <c r="B59">
-        <v>0.6845538900000001</v>
-      </c>
-      <c r="C59">
         <v>-0.02748753053170028</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43312</v>
       </c>
       <c r="B60">
-        <v>0.7678255300000001</v>
-      </c>
-      <c r="C60">
         <v>0.04943245834658327</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43343</v>
       </c>
       <c r="B61">
-        <v>0.71460203</v>
-      </c>
-      <c r="C61">
         <v>-0.03010676059192341</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>43373</v>
       </c>
       <c r="B62">
-        <v>0.73367285</v>
-      </c>
-      <c r="C62">
         <v>0.011122592687004</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>43404</v>
       </c>
       <c r="B63">
-        <v>0.8901976</v>
-      </c>
-      <c r="C63">
         <v>0.09028505579931068</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>43434</v>
       </c>
       <c r="B64">
-        <v>0.97084324</v>
-      </c>
-      <c r="C64">
         <v>0.04266519013673498</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>43465</v>
       </c>
       <c r="B65">
-        <v>0.98184563</v>
-      </c>
-      <c r="C65">
         <v>0.00558257997221534</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>43496</v>
       </c>
       <c r="B66">
-        <v>1.12736695</v>
-      </c>
-      <c r="C66">
         <v>0.073427172024493</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>43524</v>
       </c>
       <c r="B67">
-        <v>1.11881763</v>
-      </c>
-      <c r="C67">
         <v>-0.004018733110430106</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>43555</v>
       </c>
       <c r="B68">
-        <v>1.12292392</v>
-      </c>
-      <c r="C68">
         <v>0.001938010115575484</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>43585</v>
       </c>
       <c r="B69">
-        <v>1.18254473</v>
-      </c>
-      <c r="C69">
         <v>0.02808428952084174</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>43616</v>
       </c>
       <c r="B70">
-        <v>1.22234481</v>
-      </c>
-      <c r="C70">
         <v>0.0182356308454672</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>43646</v>
       </c>
       <c r="B71">
-        <v>1.29366922</v>
-      </c>
-      <c r="C71">
         <v>0.0320942140387297</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>43677</v>
       </c>
       <c r="B72">
-        <v>1.32426162</v>
-      </c>
-      <c r="C72">
         <v>0.01333775582514041</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>43708</v>
       </c>
       <c r="B73">
-        <v>1.31495845</v>
-      </c>
-      <c r="C73">
         <v>-0.004002634608749611</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>43738</v>
       </c>
       <c r="B74">
-        <v>1.35862887</v>
-      </c>
-      <c r="C74">
         <v>0.01886445089327649</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>43769</v>
       </c>
       <c r="B75">
-        <v>1.39263614</v>
-      </c>
-      <c r="C75">
         <v>0.01441823698189526</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>43799</v>
       </c>
       <c r="B76">
-        <v>1.41336997</v>
-      </c>
-      <c r="C76">
         <v>0.008665684536554696</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>43830</v>
       </c>
       <c r="B77">
-        <v>1.57959995</v>
-      </c>
-      <c r="C77">
         <v>0.06887878032227257</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>43861</v>
       </c>
       <c r="B78">
-        <v>1.59294929</v>
-      </c>
-      <c r="C78">
         <v>0.005174965211175442</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>43890</v>
       </c>
       <c r="B79">
-        <v>1.47947874</v>
-      </c>
-      <c r="C79">
         <v>-0.04376119133436662</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>43921</v>
       </c>
       <c r="B80">
-        <v>0.9543125400000001</v>
-      </c>
-      <c r="C80">
         <v>-0.2118050828699582</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>43951</v>
       </c>
       <c r="B81">
-        <v>1.14768295</v>
-      </c>
-      <c r="C81">
         <v>0.09894548903626244</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>43982</v>
       </c>
       <c r="B82">
-        <v>1.22762006</v>
-      </c>
-      <c r="C82">
         <v>0.03722016324616262</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>44012</v>
       </c>
       <c r="B83">
-        <v>1.37015205</v>
-      </c>
-      <c r="C83">
         <v>0.06398397669304523</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>44043</v>
       </c>
       <c r="B84">
-        <v>1.47599194</v>
-      </c>
-      <c r="C84">
         <v>0.0446553165228365</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>44074</v>
       </c>
       <c r="B85">
-        <v>1.4070237</v>
-      </c>
-      <c r="C85">
         <v>-0.02785479180517858</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>44104</v>
       </c>
       <c r="B86">
-        <v>1.35293824</v>
-      </c>
-      <c r="C86">
         <v>-0.02246984938287067</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>44135</v>
       </c>
       <c r="B87">
-        <v>1.30548508</v>
-      </c>
-      <c r="C87">
         <v>-0.02016761816918744</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>44165</v>
       </c>
       <c r="B88">
-        <v>1.45583906</v>
-      </c>
-      <c r="C88">
-        <v>0.06521576795456863</v>
+        <v>0.04909043263034252</v>
       </c>
     </row>
   </sheetData>
